--- a/CashFlow/AES_cashflow.xlsx
+++ b/CashFlow/AES_cashflow.xlsx
@@ -742,19 +742,19 @@
         </is>
       </c>
       <c r="B6" s="0" t="n">
-        <v>1900000000.0</v>
+        <v>-20000000.0</v>
       </c>
       <c r="C6" s="0" t="n">
-        <v>1926000000.0</v>
+        <v>16000000.0</v>
       </c>
       <c r="D6" s="0" t="n">
-        <v>1424000000.0</v>
+        <v>-43000000.0</v>
       </c>
       <c r="E6" s="0" t="n">
-        <v>963000000.0</v>
+        <v>69000000.0</v>
       </c>
       <c r="F6" s="0" t="n">
-        <v>484000000.0</v>
+        <v>28000000.0</v>
       </c>
       <c r="G6" s="0" t="n">
         <v>-26000000.0</v>
@@ -866,19 +866,19 @@
         </is>
       </c>
       <c r="B7" s="0" t="n">
-        <v>4535000000.0</v>
+        <v>-186000000.0</v>
       </c>
       <c r="C7" s="0" t="n">
-        <v>4690000000.0</v>
+        <v>-92000000.0</v>
       </c>
       <c r="D7" s="0" t="n">
-        <v>3604000000.0</v>
+        <v>-58000000.0</v>
       </c>
       <c r="E7" s="0" t="n">
-        <v>2343000000.0</v>
+        <v>-130000000.0</v>
       </c>
       <c r="F7" s="0" t="n">
-        <v>1299000000.0</v>
+        <v>-6000000.0</v>
       </c>
       <c r="G7" s="0" t="n">
         <v>79000000.0</v>
